--- a/TP_Transcripto_N3S6/RT-qPCR/RT-qPCR.xlsx
+++ b/TP_Transcripto_N3S6/RT-qPCR/RT-qPCR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\1-UCA-iGRED\2-Enseignement\1-Licence\N3S6_Initiation Genomique Fonctionelle (IGF)\TP\RT-qPCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piosteil\Desktop\4-All_git\Cours\TP_Transcripto_N3S6\RT-qPCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1C7B0D-3DF7-4C19-B616-AD76A69057F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99A105-148B-42FE-AC75-F33AAE17A781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{7E5BB913-E61D-46E4-80C4-E225C3351BE0}"/>
   </bookViews>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E567DC9E-C1F9-45EE-A2F7-D1C6A36AE9FE}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M61"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TP_Transcripto_N3S6/RT-qPCR/RT-qPCR.xlsx
+++ b/TP_Transcripto_N3S6/RT-qPCR/RT-qPCR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piosteil\Desktop\4-All_git\Cours\TP_Transcripto_N3S6\RT-qPCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99A105-148B-42FE-AC75-F33AAE17A781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3D2BE8-4972-4048-A6CC-398AC53B1D71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{7E5BB913-E61D-46E4-80C4-E225C3351BE0}"/>
   </bookViews>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E567DC9E-C1F9-45EE-A2F7-D1C6A36AE9FE}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50:R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="E38">
-        <v>14.9</v>
+        <v>23.31</v>
       </c>
       <c r="F38">
-        <v>15.4</v>
+        <v>24.009999999999998</v>
       </c>
       <c r="G38">
-        <v>16.2</v>
+        <v>24.709999999999997</v>
       </c>
       <c r="H38">
         <v>14.9</v>
@@ -2119,13 +2119,13 @@
         <v>24</v>
       </c>
       <c r="E39">
-        <v>14.4</v>
+        <v>22.81</v>
       </c>
       <c r="F39">
-        <v>15.1</v>
+        <v>23.61</v>
       </c>
       <c r="G39">
-        <v>16.100000000000001</v>
+        <v>24.31</v>
       </c>
       <c r="H39">
         <v>14.4</v>
@@ -2160,13 +2160,13 @@
         <v>24.1</v>
       </c>
       <c r="E40">
-        <v>15</v>
+        <v>23.31</v>
       </c>
       <c r="F40">
-        <v>15.4</v>
+        <v>24.009999999999998</v>
       </c>
       <c r="G40">
-        <v>16.3</v>
+        <v>24.709999999999997</v>
       </c>
       <c r="H40">
         <v>15</v>
@@ -2582,19 +2582,19 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="J50">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>16.8</v>
       </c>
       <c r="M50">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2629,13 +2629,13 @@
         <v>16.5</v>
       </c>
       <c r="K51">
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
       <c r="L51">
-        <v>15.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="M51">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2664,19 +2664,19 @@
         <v>14.9</v>
       </c>
       <c r="I52">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="J52">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="K52">
-        <v>14.9</v>
+        <v>15.9</v>
       </c>
       <c r="L52">
-        <v>15.6</v>
+        <v>16.7</v>
       </c>
       <c r="M52">
-        <v>16.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,31 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:M1048576">
+  <conditionalFormatting sqref="B1:M49 B53:M1048576 B50:J52">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:M52">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M61">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
